--- a/ontology/Enumeration.xlsx
+++ b/ontology/Enumeration.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="121">
   <si>
     <t>Classes</t>
   </si>
@@ -430,6 +430,70 @@
   </si>
   <si>
     <t>Canon-G21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApplicationType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeUse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>browseUse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applicateUse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文物级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -765,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1208,6 +1272,70 @@
         <v>102</v>
       </c>
     </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ontology/Enumeration.xlsx
+++ b/ontology/Enumeration.xlsx
@@ -166,14 +166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FileFormat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ScannerModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HongLi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -230,270 +222,278 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>文件格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫描仪型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标靶类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SoftwareType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrimbleSoftware</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天宝扫描仪软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿泰克扫描仪软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArtecSoftware</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreaformSoftware</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形创扫描仪软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geomagic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杰魔软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相机说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sony-NEX7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索尼-NEX7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canon-5D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佳能-5D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佳能-G21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯光说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flashlightOff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flashlightOn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄影灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LightMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜头长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18-55mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indoor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outdoor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封闭摄影棚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放摄影棚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PointCloudType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点云类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colored</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑白点云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩色点云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModelType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mesh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>geometry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三角网模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>几何模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cinema4D</t>
+  </si>
+  <si>
+    <t>Canon-G21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeUse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>browseUse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applicateUse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文物级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormatType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScannerType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>TargetType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文件格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扫描仪型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标靶类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SoftwareType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用软件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TrimbleSoftware</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天宝扫描仪软件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿泰克扫描仪软件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArtecSoftware</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreaformSoftware</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>形创扫描仪软件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Geomagic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杰魔软件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CameraModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相机说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sony-NEX7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>索尼-NEX7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Canon-5D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佳能-5D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佳能-G21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灯光说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flashlightOff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flashlightOn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自然光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>摄影灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LightMode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LensModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>镜头长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18-55mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnvironmentMode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>环境说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>indoor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>outdoor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>封闭摄影棚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开放摄影棚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PointCloudType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点云类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>grey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>colored</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑白点云</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彩色点云</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ModelType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模型类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mesh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>geometry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三角网模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>几何模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cinema4D</t>
-  </si>
-  <si>
-    <t>Canon-G21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ApplicationType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浏览级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>storeUse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>browseUse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applicateUse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文物级别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3级</t>
+    <t>CameraType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LensType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnvironmentType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccuracyType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -831,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -866,10 +866,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1002,338 +1002,338 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" t="s">
         <v>54</v>
-      </c>
-      <c r="C25" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C37" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C42" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="C44" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C46" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C47" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C48" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C49" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C50" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C51" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C52" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C53" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C54" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C55" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C56" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C57" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C58" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C59" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C60" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/ontology/Enumeration.xlsx
+++ b/ontology/Enumeration.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7005"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="129">
   <si>
     <t>Classes</t>
   </si>
@@ -302,14 +302,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>flashlightOff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flashlightOn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>自然光</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -318,10 +310,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LightMode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>镜头长度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -338,14 +326,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>indoor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>outdoor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>封闭摄影棚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -362,14 +342,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>grey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>colored</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>黑白点云</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -386,14 +358,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mesh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>geometry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>三角网模型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -425,18 +389,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>storeUse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>browseUse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applicateUse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -445,18 +397,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>level1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -473,35 +413,123 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>TargetType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CameraType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LensType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnvironmentType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ScannerType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TargetType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CameraType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LensType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnvironmentType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AccuracyType</t>
+    <t>LightType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrecisionType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MetadataType</t>
+  </si>
+  <si>
+    <t>元数据类型</t>
+  </si>
+  <si>
+    <t>RelicType</t>
+  </si>
+  <si>
+    <t>文物类型</t>
+  </si>
+  <si>
+    <t>古青铜器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古书画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlashlightOff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlashlightOn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indoor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Outdoor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Colored</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mesh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geometry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoreUse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApplicateUse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BrowseUse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BronzeWare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AncientCalligraphyAndPaintings</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -515,6 +543,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -543,12 +577,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -821,7 +856,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -829,22 +864,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.75" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" customWidth="1"/>
-    <col min="3" max="3" width="27.4140625" customWidth="1"/>
-    <col min="4" max="4" width="23.83203125" customWidth="1"/>
-    <col min="5" max="5" width="43.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.375" customWidth="1"/>
+    <col min="3" max="3" width="27.375" customWidth="1"/>
+    <col min="4" max="4" width="23.875" customWidth="1"/>
+    <col min="5" max="5" width="43.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -864,15 +899,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>27</v>
       </c>
@@ -880,7 +915,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>28</v>
       </c>
@@ -888,7 +923,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>29</v>
       </c>
@@ -896,7 +931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>30</v>
       </c>
@@ -904,7 +939,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>31</v>
       </c>
@@ -912,7 +947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>32</v>
       </c>
@@ -920,7 +955,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>33</v>
       </c>
@@ -928,7 +963,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>34</v>
       </c>
@@ -936,7 +971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>35</v>
       </c>
@@ -944,7 +979,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>36</v>
       </c>
@@ -952,7 +987,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -960,7 +995,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>17</v>
       </c>
@@ -968,7 +1003,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>19</v>
       </c>
@@ -976,7 +1011,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>22</v>
       </c>
@@ -984,7 +1019,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>24</v>
       </c>
@@ -992,7 +1027,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>37</v>
       </c>
@@ -1000,15 +1035,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>43</v>
       </c>
@@ -1016,7 +1051,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>44</v>
       </c>
@@ -1024,7 +1059,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>45</v>
       </c>
@@ -1032,7 +1067,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>47</v>
       </c>
@@ -1040,7 +1075,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>38</v>
       </c>
@@ -1048,15 +1083,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C25" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>50</v>
       </c>
@@ -1064,7 +1099,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>48</v>
       </c>
@@ -1072,7 +1107,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -1080,7 +1115,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>57</v>
       </c>
@@ -1088,7 +1123,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>60</v>
       </c>
@@ -1096,7 +1131,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>61</v>
       </c>
@@ -1104,7 +1139,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>63</v>
       </c>
@@ -1112,15 +1147,15 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C33" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>66</v>
       </c>
@@ -1128,7 +1163,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>68</v>
       </c>
@@ -1136,204 +1171,238 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C36" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="C38" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" t="s">
         <v>72</v>
       </c>
-      <c r="C39" t="s">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="C42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
         <v>118</v>
       </c>
-      <c r="C41" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>79</v>
-      </c>
-      <c r="C43" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="C49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
         <v>119</v>
       </c>
-      <c r="C44" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
-        <v>81</v>
-      </c>
-      <c r="C45" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>85</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="C51" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" t="s">
         <v>87</v>
       </c>
-      <c r="C48" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>88</v>
-      </c>
-      <c r="C49" t="s">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" t="s">
         <v>91</v>
       </c>
-      <c r="C50" t="s">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" t="s">
         <v>93</v>
       </c>
-      <c r="C51" t="s">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
-        <v>94</v>
-      </c>
-      <c r="C52" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>124</v>
+      </c>
+      <c r="C58" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>120</v>
-      </c>
-      <c r="C53" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
-        <v>103</v>
-      </c>
-      <c r="C54" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
-        <v>105</v>
-      </c>
-      <c r="C55" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
-        <v>104</v>
-      </c>
-      <c r="C56" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>106</v>
-      </c>
-      <c r="C57" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C58" t="s">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B63" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
-        <v>109</v>
-      </c>
-      <c r="C59" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
-        <v>110</v>
-      </c>
-      <c r="C60" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
